--- a/实体 entity/猪灵交易 1.16.2+.xlsx
+++ b/实体 entity/猪灵交易 1.16.2+.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft\tree-hole\实体 entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB400C91-C863-40F6-907C-FA3F3933DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E16B9F-8D3F-47A4-AFB5-4B16CAB40781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -619,28 +622,28 @@
         <v>5</v>
       </c>
       <c r="F2" s="8">
-        <f>E2/SUM(E$2:E$19)</f>
-        <v>1.0893246187363835E-2</v>
+        <f t="shared" ref="F2:F19" si="0">E2/SUM(E$2:E$20)</f>
+        <v>1.0660980810234541E-2</v>
       </c>
       <c r="G2" s="6">
         <f>1/(D2*F2)</f>
-        <v>91.8</v>
+        <v>93.8</v>
       </c>
       <c r="H2" s="6">
         <f>G2/9</f>
-        <v>10.199999999999999</v>
+        <v>10.422222222222222</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I20" si="0">D2*F2</f>
-        <v>1.0893246187363835E-2</v>
+        <f t="shared" ref="I2:I20" si="1">D2*F2</f>
+        <v>1.0660980810234541E-2</v>
       </c>
       <c r="J2" s="6">
         <f>1728*I2</f>
-        <v>18.823529411764707</v>
+        <v>18.422174840085287</v>
       </c>
       <c r="K2" s="9">
         <f>J2*9</f>
-        <v>169.41176470588235</v>
+        <v>165.79957356076758</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -654,35 +657,35 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D20" si="1">(B3+C3)/2</f>
+        <f t="shared" ref="D3:D20" si="2">(B3+C3)/2</f>
         <v>1</v>
       </c>
       <c r="E3" s="7">
         <v>8</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F20" si="2">E3/SUM(E$2:E$19)</f>
-        <v>1.7429193899782137E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7057569296375266E-2</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G20" si="3">1/(D3*F3)</f>
-        <v>57.374999999999993</v>
+        <v>58.625</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H20" si="4">G3/9</f>
-        <v>6.3749999999999991</v>
+        <v>6.5138888888888893</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7429193899782137E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7057569296375266E-2</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J20" si="5">1728*I3</f>
-        <v>30.117647058823533</v>
+        <v>29.475479744136461</v>
       </c>
       <c r="K3" s="9">
         <f t="shared" ref="K3:K20" si="6">J3*9</f>
-        <v>271.05882352941177</v>
+        <v>265.27931769722812</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -696,35 +699,35 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E4" s="7">
         <v>8</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="2"/>
-        <v>1.7429193899782137E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7057569296375266E-2</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>57.374999999999993</v>
+        <v>58.625</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="4"/>
-        <v>6.3749999999999991</v>
+        <v>6.5138888888888893</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7429193899782137E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7057569296375266E-2</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="5"/>
-        <v>30.117647058823533</v>
+        <v>29.475479744136461</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="6"/>
-        <v>271.05882352941177</v>
+        <v>265.27931769722812</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -738,35 +741,35 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E5" s="7">
         <v>8</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="2"/>
-        <v>1.7429193899782137E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7057569296375266E-2</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="3"/>
-        <v>57.374999999999993</v>
+        <v>58.625</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="4"/>
-        <v>6.3749999999999991</v>
+        <v>6.5138888888888893</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7429193899782137E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7057569296375266E-2</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="5"/>
-        <v>30.117647058823533</v>
+        <v>29.475479744136461</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="6"/>
-        <v>271.05882352941177</v>
+        <v>265.27931769722812</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -780,35 +783,35 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E6" s="7">
         <v>10</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="2"/>
-        <v>2.178649237472767E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1321961620469083E-2</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="3"/>
-        <v>45.9</v>
+        <v>46.9</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>5.2111111111111112</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>2.178649237472767E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1321961620469083E-2</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="5"/>
-        <v>37.647058823529413</v>
+        <v>36.844349680170573</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="6"/>
-        <v>338.8235294117647</v>
+        <v>331.59914712153517</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -822,35 +825,35 @@
         <v>36</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E7" s="7">
         <v>10</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>2.178649237472767E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1321961620469083E-2</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="3"/>
-        <v>1.9956521739130433</v>
+        <v>2.0391304347826087</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="4"/>
-        <v>0.22173913043478258</v>
+        <v>0.22657004830917873</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.50108932461873645</v>
+        <f t="shared" si="1"/>
+        <v>0.49040511727078889</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="5"/>
-        <v>865.88235294117658</v>
+        <v>847.42004264392324</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="6"/>
-        <v>7792.9411764705892</v>
+        <v>7626.7803837953088</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,35 +867,35 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E8" s="7">
         <v>10</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
-        <v>2.178649237472767E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1321961620469083E-2</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="3"/>
-        <v>15.299999999999999</v>
+        <v>15.633333333333333</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="4"/>
-        <v>1.7</v>
+        <v>1.7370370370370369</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>6.535947712418301E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3965884861407252E-2</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="5"/>
-        <v>112.94117647058825</v>
+        <v>110.53304904051173</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="6"/>
-        <v>1016.4705882352943</v>
+        <v>994.79744136460556</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -906,35 +909,35 @@
         <v>9</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E9" s="7">
         <v>20</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
-        <v>4.357298474945534E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2643923240938165E-2</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="3"/>
-        <v>3.8249999999999997</v>
+        <v>3.9083333333333332</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="4"/>
-        <v>0.42499999999999999</v>
+        <v>0.43425925925925923</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26143790849673204</v>
+        <f t="shared" si="1"/>
+        <v>0.25586353944562901</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="5"/>
-        <v>451.76470588235298</v>
+        <v>442.13219616204691</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="6"/>
-        <v>4065.882352941177</v>
+        <v>3979.1897654584222</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -948,35 +951,35 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="E10" s="7">
         <v>20</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
-        <v>4.357298474945534E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2643923240938165E-2</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="3"/>
-        <v>2.6999999999999997</v>
+        <v>2.7588235294117647</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>0.30653594771241832</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.37037037037037041</v>
+        <f t="shared" si="1"/>
+        <v>0.36247334754797439</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="5"/>
-        <v>640.00000000000011</v>
+        <v>626.35394456289976</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="6"/>
-        <v>5760.0000000000009</v>
+        <v>5637.1855010660975</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -990,35 +993,35 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E11" s="7">
         <v>40</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="3"/>
-        <v>11.475</v>
+        <v>11.725</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="4"/>
-        <v>1.2749999999999999</v>
+        <v>1.3027777777777778</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="5"/>
-        <v>150.58823529411765</v>
+        <v>147.37739872068229</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="6"/>
-        <v>1355.2941176470588</v>
+        <v>1326.3965884861407</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1032,35 +1035,35 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E12" s="7">
         <v>40</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="3"/>
-        <v>5.7374999999999998</v>
+        <v>5.8624999999999998</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="4"/>
-        <v>0.63749999999999996</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.17429193899782136</v>
+        <f t="shared" si="1"/>
+        <v>0.17057569296375266</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="5"/>
-        <v>301.1764705882353</v>
+        <v>294.75479744136459</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="6"/>
-        <v>2710.5882352941176</v>
+        <v>2652.7931769722813</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1074,35 +1077,35 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E13" s="7">
         <v>40</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="3"/>
-        <v>11.475</v>
+        <v>11.725</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="4"/>
-        <v>1.2749999999999999</v>
+        <v>1.3027777777777778</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="5"/>
-        <v>150.58823529411765</v>
+        <v>147.37739872068229</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="6"/>
-        <v>1355.2941176470588</v>
+        <v>1326.3965884861407</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1116,35 +1119,35 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E14" s="7">
         <v>40</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="3"/>
-        <v>3.8249999999999997</v>
+        <v>3.9083333333333332</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="4"/>
-        <v>0.42499999999999999</v>
+        <v>0.43425925925925923</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26143790849673204</v>
+        <f t="shared" si="1"/>
+        <v>0.25586353944562901</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="5"/>
-        <v>451.76470588235298</v>
+        <v>442.13219616204691</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="6"/>
-        <v>4065.882352941177</v>
+        <v>3979.1897654584222</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1158,35 +1161,35 @@
         <v>8</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E15" s="7">
         <v>40</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="3"/>
-        <v>2.2949999999999999</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="4"/>
-        <v>0.255</v>
+        <v>0.2605555555555556</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4357298474945534</v>
+        <f t="shared" si="1"/>
+        <v>0.42643923240938164</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="5"/>
-        <v>752.94117647058829</v>
+        <v>736.8869936034115</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>6776.4705882352946</v>
+        <v>6631.9829424307036</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1200,35 +1203,35 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E16" s="7">
         <v>40</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="3"/>
-        <v>2.2949999999999999</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="4"/>
-        <v>0.255</v>
+        <v>0.2605555555555556</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4357298474945534</v>
+        <f t="shared" si="1"/>
+        <v>0.42643923240938164</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="5"/>
-        <v>752.94117647058829</v>
+        <v>736.8869936034115</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
-        <v>6776.4705882352946</v>
+        <v>6631.9829424307036</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1242,35 +1245,35 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E17" s="7">
         <v>40</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="3"/>
-        <v>1.2749999999999999</v>
+        <v>1.3027777777777778</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="4"/>
-        <v>0.14166666666666666</v>
+        <v>0.1447530864197531</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.78431372549019618</v>
+        <f t="shared" si="1"/>
+        <v>0.76759061833688702</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="5"/>
-        <v>1355.294117647059</v>
+        <v>1326.3965884861407</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
-        <v>12197.647058823532</v>
+        <v>11937.569296375266</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1284,35 +1287,35 @@
         <v>16</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E18" s="7">
         <v>40</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="3"/>
-        <v>0.95624999999999993</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="4"/>
-        <v>0.10625</v>
+        <v>0.10856481481481481</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0457516339869282</v>
+        <f t="shared" si="1"/>
+        <v>1.023454157782516</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="5"/>
-        <v>1807.0588235294119</v>
+        <v>1768.5287846481876</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>16263.529411764708</v>
+        <v>15916.759061833689</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1326,35 +1329,35 @@
         <v>16</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E19" s="7">
         <v>40</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="2"/>
-        <v>8.714596949891068E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5287846481876331E-2</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="3"/>
-        <v>0.95624999999999993</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="4"/>
-        <v>0.10625</v>
+        <v>0.10856481481481481</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0457516339869282</v>
+        <f t="shared" si="1"/>
+        <v>1.023454157782516</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="5"/>
-        <v>1807.0588235294119</v>
+        <v>1768.5287846481876</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>16263.529411764708</v>
+        <v>15916.759061833689</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1368,35 +1371,35 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E20" s="7">
         <v>10</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="2"/>
-        <v>2.178649237472767E-2</v>
+        <f>E20/SUM(E$2:E$20)</f>
+        <v>2.1321961620469083E-2</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="3"/>
-        <v>45.9</v>
+        <v>46.9</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>5.2111111111111112</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>2.178649237472767E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1321961620469083E-2</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="5"/>
-        <v>37.647058823529413</v>
+        <v>36.844349680170573</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>338.8235294117647</v>
+        <v>331.59914712153517</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
